--- a/eclipse-workspace/javaProject/bin/com/Excel/File.xlsx
+++ b/eclipse-workspace/javaProject/bin/com/Excel/File.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PULI RAJU\Documents\Custom Office Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PULI RAJU\eclipse-workspace\eclipse-workspace\javaProject\src\com\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="8_{5BACD6A4-7F91-48C6-A1A5-004EBF61A196}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{6663F270-606F-4CEA-8002-37340D739343}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{5795CF01-F4DF-4490-9B7D-2BF6CBD48722}" yWindow="-108"/>
+    <workbookView activeTab="2" windowHeight="9240" windowWidth="10536" xWindow="11916" xr2:uid="{5795CF01-F4DF-4490-9B7D-2BF6CBD48722}" yWindow="2652"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,12 +36,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>PULIRAJU</t>
   </si>
   <si>
     <t>selwnium</t>
+  </si>
+  <si>
+    <t>raju</t>
+  </si>
+  <si>
+    <t>fytfyts</t>
+  </si>
+  <si>
+    <t>xtstx</t>
+  </si>
+  <si>
+    <t>trxrxfds</t>
+  </si>
+  <si>
+    <t>ytxftfd</t>
+  </si>
+  <si>
+    <t>puliraju</t>
+  </si>
+  <si>
+    <t>daddy</t>
   </si>
 </sst>
 </file>
@@ -400,9 +423,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A16BC22-55A0-400F-B044-ED3005895743}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -411,12 +434,12 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="33.6" r="1" spans="1:1" x14ac:dyDescent="0.65">
+    <row ht="33.6" r="1" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>1</v>
       </c>
@@ -425,4 +448,85 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7FBB2C-2192-4FC9-B43C-EE37BE27DAF1}">
+  <dimension ref="B1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA43BED-E3C9-46CB-9028-A0BF7CCF4D46}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>